--- a/Data/La Pradera/DatosGoGreen.xlsx
+++ b/Data/La Pradera/DatosGoGreen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11103"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joserodolforojasmazariegos/Documents/2do Semestre 2019/Taller/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joserodolforojasmazariegos/Documents/2do Semestre 2019/Taller/Centro_de_Investigaciones_UFM_CC/Data/La Pradera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5571B16-1874-3F49-A961-167618C24E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8717F1-19A7-C14C-9BE8-89F95819B3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="820" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{5AF8730B-CC4F-3C43-BAE2-8E4752DD97AF}"/>
+    <workbookView xWindow="2340" yWindow="820" windowWidth="23260" windowHeight="12580" xr2:uid="{5AF8730B-CC4F-3C43-BAE2-8E4752DD97AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Dia 1" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Inicio</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Go Green</t>
-  </si>
-  <si>
-    <t>2019/Sep/26 12:09:21</t>
   </si>
   <si>
     <t>Kirzten</t>
@@ -173,7 +170,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy/mmm/dd\ hh:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -191,7 +188,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <numFmt numFmtId="165" formatCode="yyyy/mmm/dd\ hh:mm:ss"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -282,7 +279,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1B8196-173A-B14C-B32D-212418C79E55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -330,14 +327,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1054100" cy="495300"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6146" name="Button 2" descr="Nuevo Ingreso" hidden="1">
@@ -346,7 +348,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F7212E-CB72-6B4D-915F-614EBD70FFB4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -388,20 +390,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="520700"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6147" name="Button 3" descr="Nuevo Ingreso" hidden="1">
@@ -410,7 +417,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA10BA2-703A-5847-8028-75584C99C08D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -452,7 +459,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -484,7 +491,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -553,7 +560,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -622,7 +629,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -696,7 +703,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -765,7 +772,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -834,7 +841,7 @@
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -884,7 +891,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2463069-5115-C44B-9A5B-EF16EB4B6E74}" name="Registros353" displayName="Registros353" ref="A4:D65" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2463069-5115-C44B-9A5B-EF16EB4B6E74}" name="Registros353" displayName="Registros353" ref="A4:D65" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A4:D65" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -892,36 +899,18 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ingreso" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Llegada" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Inicio" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Final" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ingreso" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Llegada" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Inicio" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Final" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4118EEF-0C90-7A47-B683-E037E317484D}" name="Registros35" displayName="Registros35" ref="A4:D39" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4118EEF-0C90-7A47-B683-E037E317484D}" name="Registros35" displayName="Registros35" ref="A4:D39" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A4:D39" xr:uid="{38F33E70-B886-0340-AB07-28240A2C5667}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B0B59DD0-B0CF-3542-865E-6A71DC27B2E7}" name="Ingreso" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{3F641D49-C4F1-1D4F-A2A5-6B4353F35107}" name="Llegada" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{35AFCE1A-BA50-884E-A290-CD4688007F79}" name="Inicio" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{D944DDE6-A7F6-5548-B60E-CC2FFABDE9EC}" name="Final" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08CF5A0E-90F9-9D48-AEF9-8CE5DC0A29F8}" name="Registros352" displayName="Registros352" ref="A4:D20" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A4:D20" xr:uid="{38F33E70-B886-0340-AB07-28240A2C5667}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -932,6 +921,24 @@
     <tableColumn id="3" xr3:uid="{3F641D49-C4F1-1D4F-A2A5-6B4353F35107}" name="Llegada" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{35AFCE1A-BA50-884E-A290-CD4688007F79}" name="Inicio" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{D944DDE6-A7F6-5548-B60E-CC2FFABDE9EC}" name="Final" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08CF5A0E-90F9-9D48-AEF9-8CE5DC0A29F8}" name="Registros352" displayName="Registros352" ref="A4:D20" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A4:D20" xr:uid="{38F33E70-B886-0340-AB07-28240A2C5667}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B0B59DD0-B0CF-3542-865E-6A71DC27B2E7}" name="Ingreso" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3F641D49-C4F1-1D4F-A2A5-6B4353F35107}" name="Llegada" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{35AFCE1A-BA50-884E-A290-CD4688007F79}" name="Inicio" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D944DDE6-A7F6-5548-B60E-CC2FFABDE9EC}" name="Final" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1237,9 +1244,9 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1264,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,8 +1307,8 @@
       <c r="B5" s="5">
         <v>43734.506493055553</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="5">
+        <v>43734.506493055553</v>
       </c>
       <c r="D5" s="5">
         <v>43734.509618055556</v>
@@ -2980,9 +2987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA3034-AA47-CE43-B4B9-7AB89185D8DA}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
